--- a/Contextual Inquiry/CI-Auswertung.xlsx
+++ b/Contextual Inquiry/CI-Auswertung.xlsx
@@ -500,11 +500,12 @@
   <dimension ref="A2:AN27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
     <col min="4" max="4" width="22.85546875" customWidth="1"/>
     <col min="5" max="5" width="26" style="1" customWidth="1"/>
@@ -2116,79 +2117,79 @@
         <v>45</v>
       </c>
       <c r="F26" s="1">
-        <f>SUM(F5:F24)</f>
+        <f t="shared" ref="F26:X26" si="0">SUM(F5:F24)</f>
         <v>20</v>
       </c>
       <c r="G26" s="1">
-        <f>SUM(G5:G24)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="H26" s="1">
-        <f>SUM(H5:H24)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="I26" s="1">
-        <f>SUM(I5:I24)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="J26" s="1">
-        <f>SUM(J5:J24)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="K26" s="1">
-        <f>SUM(K5:K24)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="L26" s="1">
-        <f>SUM(L5:L24)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M26" s="1">
-        <f>SUM(M5:M24)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="N26" s="1">
-        <f>SUM(N5:N24)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="O26" s="1">
-        <f>SUM(O5:O24)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="P26" s="1">
-        <f>SUM(P5:P24)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="Q26" s="1">
-        <f>SUM(Q5:Q24)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="R26" s="1">
-        <f>SUM(R5:R24)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="S26" s="1">
-        <f>SUM(S5:S24)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="T26" s="1">
-        <f>SUM(T5:T24)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="U26" s="1">
-        <f>SUM(U5:U24)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="V26" s="1">
-        <f>SUM(V5:V24)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="W26" s="1">
-        <f>SUM(W5:W24)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="X26" s="1">
-        <f>SUM(X5:X24)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2201,75 +2202,75 @@
         <v>100</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" ref="G27:X27" si="0">(G26/20)*100</f>
+        <f t="shared" ref="G27:X27" si="1">(G26/20)*100</f>
         <v>45</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="L27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="M27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="N27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="O27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="P27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="Q27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="R27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="S27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="T27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="U27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="V27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="W27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="X27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
